--- a/CBP專案/CBP基本資料_規劃處_策略規畫科v2.xlsx
+++ b/CBP專案/CBP基本資料_規劃處_策略規畫科v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\chtData\Data\chti\資訊系統資料\CBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apple\Documents\GitHub\cbp-sys-api-v2\CBP專案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4AD98-0641-43B8-BA01-5A769A9563A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87707E14-BBEB-460F-8EA6-0B193A9C1466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="604" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="604" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBP作業" sheetId="3" state="hidden" r:id="rId1"/>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3718,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -3734,11 +3732,11 @@
     <col min="8" max="8" width="71.25" style="11" customWidth="1"/>
     <col min="9" max="9" width="15" style="11" customWidth="1"/>
     <col min="10" max="10" width="62.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="7.375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="6.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="46.375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30.75" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="17.625" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.75" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.75" style="11"/>
@@ -4147,7 +4145,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4559,8 +4557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -4838,6 +4836,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100F925B1ED1A688E4B80AA7E89B44301DB" ma:contentTypeVersion="9" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="57961d20e9fabde1c79b7acf2037ff0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a9660bb-d86e-4616-bcb3-bbadf23eaeb3" xmlns:ns3="e8a82e28-d8aa-48ad-93ba-fb8b162172fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c100ffd92da91f303ec58d20bbe5bfa5" ns2:_="" ns3:_="">
     <xsd:import namespace="1a9660bb-d86e-4616-bcb3-bbadf23eaeb3"/>
@@ -5018,16 +5025,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA9F754-9760-489E-B7D9-4748A20E9148}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5284254-DD1F-4B0F-8855-BE7F6FC3AA3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5044,12 +5050,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA9F754-9760-489E-B7D9-4748A20E9148}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CBP專案/CBP基本資料_規劃處_策略規畫科v2.xlsx
+++ b/CBP專案/CBP基本資料_規劃處_策略規畫科v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apple\Documents\GitHub\cbp-sys-api-v2\CBP專案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87707E14-BBEB-460F-8EA6-0B193A9C1466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6670F-CB5E-4F6D-8E48-C2226538A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="604" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3716,7 +3716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -4836,15 +4836,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100F925B1ED1A688E4B80AA7E89B44301DB" ma:contentTypeVersion="9" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="57961d20e9fabde1c79b7acf2037ff0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a9660bb-d86e-4616-bcb3-bbadf23eaeb3" xmlns:ns3="e8a82e28-d8aa-48ad-93ba-fb8b162172fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c100ffd92da91f303ec58d20bbe5bfa5" ns2:_="" ns3:_="">
     <xsd:import namespace="1a9660bb-d86e-4616-bcb3-bbadf23eaeb3"/>
@@ -5025,15 +5016,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA9F754-9760-489E-B7D9-4748A20E9148}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5284254-DD1F-4B0F-8855-BE7F6FC3AA3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5050,4 +5042,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA9F754-9760-489E-B7D9-4748A20E9148}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>